--- a/Backup/Instructions/AnswerCodeDial.xlsx
+++ b/Backup/Instructions/AnswerCodeDial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440" tabRatio="500"/>
@@ -58,7 +58,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,6 +421,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
